--- a/people.xlsx
+++ b/people.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -52,7 +52,7 @@
     <x:t>TestScenario_1.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t>New Account</x:t>
+    <x:t>New people__c</x:t>
   </x:si>
   <x:si>
     <x:t>User Needs to Login to Salesforce, from the browser with correct credentials</x:t>
@@ -61,43 +61,67 @@
     <x:t>Step 1</x:t>
   </x:si>
   <x:si>
-    <x:t>Click on the Account tab, and click on New button</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the New  Account Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for required field Account Name </x:t>
+    <x:t>Click on the people__c tab, and click on New button</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the New  people__c Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Emp Id </x:t>
   </x:si>
   <x:si>
     <x:t>Step 2</x:t>
   </x:si>
   <x:si>
-    <x:t>Input valid value in the  Account Name field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the Account Name field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for required field  </x:t>
+    <x:t>Input valid value in the  Emp Id field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Emp Id field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Last Name </x:t>
   </x:si>
   <x:si>
     <x:t>Step 3</x:t>
   </x:si>
   <x:si>
-    <x:t>Input valid value in the   field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the  field.</x:t>
+    <x:t>Input valid value in the  Last Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Last Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field people Name </x:t>
   </x:si>
   <x:si>
     <x:t>Step 4</x:t>
   </x:si>
   <x:si>
-    <x:t>Click on Save button to save Account with fields</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that a New Account is created</x:t>
+    <x:t>Input valid value in the  people Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the people Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Designation </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Designation field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Designation field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Save button to save people__c with fields</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a New people__c is created</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_2</x:t>
@@ -106,19 +130,19 @@
     <x:t>TestScenario_2.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t>View Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Click on the Account tab,  and select a Account </x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Account Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Account name to View the Details</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to view the Account Details</x:t>
+    <x:t>View people__c</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Click on the people__c tab,  and select a people__c </x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the people__c Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on people__c name to View the Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to view the people__c Details</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_3</x:t>
@@ -127,148 +151,22 @@
     <x:t>TestScenario_3.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t>Edit Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Account tab,  and click on existing Account to modify</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User is navigated to the Account Details page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that the Account is edited</x:t>
+    <x:t>Edit people__c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the people__c tab,  and click on existing people__c to modify</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User is navigated to the people__c Details page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that the people__c is edited</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_4</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_4.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Delete Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Account tab,  and select the existing  Account to delete</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on to the Delete to Delete the Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that a pop-up is displayed asking for confirmation to delete the Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Confirm / OK to delete the  Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate the Account is deleted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_5.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New people__c</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the people__c tab, and click on New button</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the New  people__c Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for required field Emp Id </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Emp Id field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the Emp Id field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for required field Last Name </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Last Name field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the Last Name field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for required field people Name </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  people Name field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the people Name field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for required field Designation </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Designation field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the Designation field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Save button to save people__c with fields</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that a New people__c is created</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_6.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>View people__c</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Click on the people__c tab,  and select a people__c </x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the people__c Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on people__c name to View the Details</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to view the people__c Details</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_7.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Edit people__c</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the people__c tab,  and click on existing people__c to modify</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User is navigated to the people__c Details page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that the people__c is edited</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_8.TestCase_1</x:t>
   </x:si>
   <x:si>
     <x:t>Delete people__c</x:t>
@@ -370,8 +268,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J31" totalsRowShown="0">
-  <x:autoFilter ref="A1:J31"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J18" totalsRowShown="0">
+  <x:autoFilter ref="A1:J18"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -676,7 +574,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J31"/>
+  <x:dimension ref="A1:J18"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -686,7 +584,7 @@
     <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="18.550625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="41.980625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="41.130625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="65.840624999999989" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="95.550625" style="0" customWidth="1"/>
@@ -797,35 +695,31 @@
       <x:c r="B5" s="0" t="s"/>
       <x:c r="C5" s="0" t="s"/>
       <x:c r="D5" s="0" t="s"/>
-      <x:c r="E5" s="0" t="s"/>
+      <x:c r="E5" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s"/>
       <x:c r="J5" s="0" t="s"/>
     </x:row>
     <x:row r="6" spans="1:10">
-      <x:c r="A6" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
+      <x:c r="A6" s="0" t="s"/>
+      <x:c r="B6" s="0" t="s"/>
+      <x:c r="C6" s="0" t="s"/>
+      <x:c r="D6" s="0" t="s"/>
+      <x:c r="E6" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
+      <x:c r="F6" s="0" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s"/>
-      <x:c r="F6" s="0" t="s">
-        <x:v>14</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
         <x:v>31</x:v>
@@ -843,26 +737,26 @@
       <x:c r="D7" s="0" t="s"/>
       <x:c r="E7" s="0" t="s"/>
       <x:c r="F7" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s"/>
       <x:c r="J7" s="0" t="s"/>
     </x:row>
     <x:row r="8" spans="1:10">
       <x:c r="A8" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
         <x:v>13</x:v>
@@ -872,10 +766,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s"/>
       <x:c r="J8" s="0" t="s"/>
@@ -885,37 +779,41 @@
       <x:c r="B9" s="0" t="s"/>
       <x:c r="C9" s="0" t="s"/>
       <x:c r="D9" s="0" t="s"/>
-      <x:c r="E9" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
+      <x:c r="E9" s="0" t="s"/>
       <x:c r="F9" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s"/>
       <x:c r="J9" s="0" t="s"/>
     </x:row>
     <x:row r="10" spans="1:10">
-      <x:c r="A10" s="0" t="s"/>
-      <x:c r="B10" s="0" t="s"/>
-      <x:c r="C10" s="0" t="s"/>
-      <x:c r="D10" s="0" t="s"/>
-      <x:c r="E10" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
+      <x:c r="A10" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s"/>
       <x:c r="F10" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s"/>
       <x:c r="J10" s="0" t="s"/>
@@ -925,41 +823,37 @@
       <x:c r="B11" s="0" t="s"/>
       <x:c r="C11" s="0" t="s"/>
       <x:c r="D11" s="0" t="s"/>
-      <x:c r="E11" s="0" t="s"/>
+      <x:c r="E11" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s"/>
       <x:c r="J11" s="0" t="s"/>
     </x:row>
     <x:row r="12" spans="1:10">
-      <x:c r="A12" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s"/>
+      <x:c r="A12" s="0" t="s"/>
+      <x:c r="B12" s="0" t="s"/>
+      <x:c r="C12" s="0" t="s"/>
+      <x:c r="D12" s="0" t="s"/>
+      <x:c r="E12" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s"/>
       <x:c r="J12" s="0" t="s"/>
@@ -969,15 +863,17 @@
       <x:c r="B13" s="0" t="s"/>
       <x:c r="C13" s="0" t="s"/>
       <x:c r="D13" s="0" t="s"/>
-      <x:c r="E13" s="0" t="s"/>
+      <x:c r="E13" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s"/>
       <x:c r="J13" s="0" t="s"/>
@@ -987,61 +883,61 @@
       <x:c r="B14" s="0" t="s"/>
       <x:c r="C14" s="0" t="s"/>
       <x:c r="D14" s="0" t="s"/>
-      <x:c r="E14" s="0" t="s"/>
+      <x:c r="E14" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
       <x:c r="F14" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H14" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s"/>
       <x:c r="J14" s="0" t="s"/>
     </x:row>
     <x:row r="15" spans="1:10">
-      <x:c r="A15" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C15" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D15" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
+      <x:c r="A15" s="0" t="s"/>
+      <x:c r="B15" s="0" t="s"/>
+      <x:c r="C15" s="0" t="s"/>
+      <x:c r="D15" s="0" t="s"/>
       <x:c r="E15" s="0" t="s"/>
       <x:c r="F15" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H15" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s"/>
       <x:c r="J15" s="0" t="s"/>
     </x:row>
     <x:row r="16" spans="1:10">
-      <x:c r="A16" s="0" t="s"/>
-      <x:c r="B16" s="0" t="s"/>
-      <x:c r="C16" s="0" t="s"/>
-      <x:c r="D16" s="0" t="s"/>
-      <x:c r="E16" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
+      <x:c r="A16" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s"/>
       <x:c r="F16" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H16" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s"/>
       <x:c r="J16" s="0" t="s"/>
@@ -1051,17 +947,15 @@
       <x:c r="B17" s="0" t="s"/>
       <x:c r="C17" s="0" t="s"/>
       <x:c r="D17" s="0" t="s"/>
-      <x:c r="E17" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
+      <x:c r="E17" s="0" t="s"/>
       <x:c r="F17" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H17" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I17" s="0" t="s"/>
       <x:c r="J17" s="0" t="s"/>
@@ -1071,288 +965,18 @@
       <x:c r="B18" s="0" t="s"/>
       <x:c r="C18" s="0" t="s"/>
       <x:c r="D18" s="0" t="s"/>
-      <x:c r="E18" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
+      <x:c r="E18" s="0" t="s"/>
       <x:c r="F18" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H18" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s"/>
       <x:c r="J18" s="0" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:10">
-      <x:c r="A19" s="0" t="s"/>
-      <x:c r="B19" s="0" t="s"/>
-      <x:c r="C19" s="0" t="s"/>
-      <x:c r="D19" s="0" t="s"/>
-      <x:c r="E19" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="F19" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="G19" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="H19" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="I19" s="0" t="s"/>
-      <x:c r="J19" s="0" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:10">
-      <x:c r="A20" s="0" t="s"/>
-      <x:c r="B20" s="0" t="s"/>
-      <x:c r="C20" s="0" t="s"/>
-      <x:c r="D20" s="0" t="s"/>
-      <x:c r="E20" s="0" t="s"/>
-      <x:c r="F20" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="G20" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="H20" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="I20" s="0" t="s"/>
-      <x:c r="J20" s="0" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:10">
-      <x:c r="A21" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="B21" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="C21" s="0" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D21" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E21" s="0" t="s"/>
-      <x:c r="F21" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G21" s="0" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="H21" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="I21" s="0" t="s"/>
-      <x:c r="J21" s="0" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:10">
-      <x:c r="A22" s="0" t="s"/>
-      <x:c r="B22" s="0" t="s"/>
-      <x:c r="C22" s="0" t="s"/>
-      <x:c r="D22" s="0" t="s"/>
-      <x:c r="E22" s="0" t="s"/>
-      <x:c r="F22" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G22" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="H22" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="I22" s="0" t="s"/>
-      <x:c r="J22" s="0" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:10">
-      <x:c r="A23" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="B23" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="C23" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="D23" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E23" s="0" t="s"/>
-      <x:c r="F23" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G23" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="H23" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="I23" s="0" t="s"/>
-      <x:c r="J23" s="0" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:10">
-      <x:c r="A24" s="0" t="s"/>
-      <x:c r="B24" s="0" t="s"/>
-      <x:c r="C24" s="0" t="s"/>
-      <x:c r="D24" s="0" t="s"/>
-      <x:c r="E24" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="F24" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G24" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="H24" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="I24" s="0" t="s"/>
-      <x:c r="J24" s="0" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:10">
-      <x:c r="A25" s="0" t="s"/>
-      <x:c r="B25" s="0" t="s"/>
-      <x:c r="C25" s="0" t="s"/>
-      <x:c r="D25" s="0" t="s"/>
-      <x:c r="E25" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="F25" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G25" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="H25" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="I25" s="0" t="s"/>
-      <x:c r="J25" s="0" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:10">
-      <x:c r="A26" s="0" t="s"/>
-      <x:c r="B26" s="0" t="s"/>
-      <x:c r="C26" s="0" t="s"/>
-      <x:c r="D26" s="0" t="s"/>
-      <x:c r="E26" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="F26" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G26" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="H26" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="I26" s="0" t="s"/>
-      <x:c r="J26" s="0" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:10">
-      <x:c r="A27" s="0" t="s"/>
-      <x:c r="B27" s="0" t="s"/>
-      <x:c r="C27" s="0" t="s"/>
-      <x:c r="D27" s="0" t="s"/>
-      <x:c r="E27" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="F27" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="G27" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="H27" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="I27" s="0" t="s"/>
-      <x:c r="J27" s="0" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:10">
-      <x:c r="A28" s="0" t="s"/>
-      <x:c r="B28" s="0" t="s"/>
-      <x:c r="C28" s="0" t="s"/>
-      <x:c r="D28" s="0" t="s"/>
-      <x:c r="E28" s="0" t="s"/>
-      <x:c r="F28" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="G28" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="H28" s="0" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I28" s="0" t="s"/>
-      <x:c r="J28" s="0" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:10">
-      <x:c r="A29" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="B29" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="C29" s="0" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="D29" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E29" s="0" t="s"/>
-      <x:c r="F29" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G29" s="0" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="H29" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="I29" s="0" t="s"/>
-      <x:c r="J29" s="0" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:10">
-      <x:c r="A30" s="0" t="s"/>
-      <x:c r="B30" s="0" t="s"/>
-      <x:c r="C30" s="0" t="s"/>
-      <x:c r="D30" s="0" t="s"/>
-      <x:c r="E30" s="0" t="s"/>
-      <x:c r="F30" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G30" s="0" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="H30" s="0" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="I30" s="0" t="s"/>
-      <x:c r="J30" s="0" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:10">
-      <x:c r="A31" s="0" t="s"/>
-      <x:c r="B31" s="0" t="s"/>
-      <x:c r="C31" s="0" t="s"/>
-      <x:c r="D31" s="0" t="s"/>
-      <x:c r="E31" s="0" t="s"/>
-      <x:c r="F31" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G31" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="H31" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="I31" s="0" t="s"/>
-      <x:c r="J31" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
